--- a/Documentatie/Kerntaak-2/2.1.2_Normalisatie/2017-05-04_Normalisatie_V0.3.xlsx
+++ b/Documentatie/Kerntaak-2/2.1.2_Normalisatie/2017-05-04_Normalisatie_V0.3.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="34">
   <si>
     <t>Normalisatie Database WebSentiment app</t>
   </si>
@@ -86,48 +86,12 @@
     <t>clientID</t>
   </si>
   <si>
-    <t>clientName</t>
-  </si>
-  <si>
     <t>clientImage</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>service</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ID</t>
-    </r>
-  </si>
-  <si>
-    <t>serviceTitle</t>
-  </si>
-  <si>
-    <t>serviceText</t>
-  </si>
-  <si>
-    <t>serviceImage</t>
-  </si>
-  <si>
     <t>projectID</t>
   </si>
   <si>
-    <t>projectName</t>
-  </si>
-  <si>
     <t>projectImageOne</t>
   </si>
   <si>
@@ -155,36 +119,13 @@
     <t>tbl_Projects</t>
   </si>
   <si>
-    <t>tbl_Services</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>service</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ID</t>
-    </r>
-  </si>
-  <si>
     <t>tbl_P_Regels</t>
   </si>
   <si>
     <t>tbl_C_Regels</t>
+  </si>
+  <si>
+    <t>Strokendiagram:</t>
   </si>
 </sst>
 </file>
@@ -225,13 +166,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -246,7 +188,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -254,16 +196,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -279,6 +241,588 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>185530</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>66261</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>198783</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>33131</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Rechte verbindingslijn met pijl 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D105534-DBAE-47C0-A7FF-2CF8A87D31D8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5671930" y="2107096"/>
+          <a:ext cx="13253" cy="523461"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>185531</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>33130</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>212035</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>106017</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Rechte verbindingslijn met pijl 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DFB65A2-421E-436B-983D-FFB46A0B9B8D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5671931" y="2073965"/>
+          <a:ext cx="26504" cy="443948"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>198783</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>26506</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>198784</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>86139</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Rechte verbindingslijn met pijl 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89A2212C-8C32-4431-9E1B-249186BB27DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6294783" y="1881810"/>
+          <a:ext cx="1" cy="245164"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>79512</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>112644</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>86139</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>39757</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="Rechte verbindingslijn met pijl 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D44A5DE7-83A3-44D7-9EBD-72F2EF3D0374}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4956312" y="1411357"/>
+          <a:ext cx="6627" cy="1225826"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>86139</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>66262</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>86142</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>125895</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="Rechte verbindingslijn met pijl 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3D3ADE6-8B29-4351-B345-E982BE3103BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4962939" y="1364975"/>
+          <a:ext cx="3" cy="1172816"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>79512</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>26505</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>86141</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>99393</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="Rechte verbindingslijn met pijl 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87CABEBF-6F41-4373-B903-3FE7C888909E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4956312" y="1325218"/>
+          <a:ext cx="6629" cy="258418"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>410817</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>33131</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>424070</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>86139</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="Rechte verbindingslijn met pijl 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE94FDC2-6B65-4820-8145-FF05FD1F73D8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="6506817" y="1888435"/>
+          <a:ext cx="13253" cy="238539"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>192157</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>53009</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>212035</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>72887</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="Rechte verbindingslijn 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87E62780-D5D8-4006-9416-314E43EC946D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="5678557" y="2093844"/>
+          <a:ext cx="629478" cy="19878"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>437322</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>72887</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>311426</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>86139</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="41" name="Rechte verbindingslijn 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBC7F058-C97A-44EA-84DD-516BEF57742D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6533322" y="2113722"/>
+          <a:ext cx="483704" cy="13252"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>284922</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>86139</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>298175</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>53009</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="42" name="Rechte verbindingslijn met pijl 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B29599FF-204D-4FB7-BD58-71736459C4AF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6990522" y="2126974"/>
+          <a:ext cx="13253" cy="523461"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>284923</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>53008</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>311427</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>125895</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="43" name="Rechte verbindingslijn met pijl 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F315C4A-0397-4F27-8B88-40AB5394412F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6990523" y="2093843"/>
+          <a:ext cx="26504" cy="443948"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -578,496 +1122,475 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M83"/>
+  <dimension ref="A1:N67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B2" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="I6" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="I7" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="M7" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="N7" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="I8" s="6"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="I9" s="7"/>
+      <c r="K9" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="I10" s="7"/>
+      <c r="K10" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="I11" s="7"/>
+      <c r="J11" s="6"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="I14" s="7"/>
+      <c r="J14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="I15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="I17" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="I18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I20" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I21" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J21" t="s">
+        <v>22</v>
+      </c>
+      <c r="K21" t="s">
+        <v>23</v>
+      </c>
+      <c r="L21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B40" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>4</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E44" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>5</v>
+      </c>
+      <c r="E45" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B59" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A61" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I61" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+      <c r="K61" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B28" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="3" t="s">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+      <c r="E62" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
         <v>4</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C63" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+      <c r="E63" t="s">
+        <v>16</v>
+      </c>
+      <c r="G63" t="s">
+        <v>12</v>
+      </c>
+      <c r="I63" t="s">
+        <v>20</v>
+      </c>
+      <c r="K63" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
         <v>5</v>
       </c>
-      <c r="C33" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+      <c r="K64" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
         <v>6</v>
       </c>
-      <c r="C34" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+      <c r="K65" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>11</v>
-      </c>
-      <c r="B52" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>4</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E56" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>5</v>
-      </c>
-      <c r="E57" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A75" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B75" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A77" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G77" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="I77" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K77" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="M77" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A78" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E78" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G78" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I78" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K78" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="M78" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
-        <v>4</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E79" t="s">
-        <v>16</v>
-      </c>
-      <c r="G79" t="s">
-        <v>12</v>
-      </c>
-      <c r="I79" t="s">
-        <v>20</v>
-      </c>
-      <c r="K79" t="s">
-        <v>23</v>
-      </c>
-      <c r="M79" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
-        <v>5</v>
-      </c>
-      <c r="I80" t="s">
-        <v>21</v>
-      </c>
-      <c r="K80" t="s">
-        <v>24</v>
-      </c>
-      <c r="M80" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
-        <v>6</v>
-      </c>
-      <c r="K81" t="s">
-        <v>25</v>
-      </c>
-      <c r="M81" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
-        <v>7</v>
-      </c>
-      <c r="M82" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Documentatie/Kerntaak-2/2.1.2_Normalisatie/2017-05-04_Normalisatie_V0.3.xlsx
+++ b/Documentatie/Kerntaak-2/2.1.2_Normalisatie/2017-05-04_Normalisatie_V0.3.xlsx
@@ -1124,8 +1124,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
